--- a/OnePCB/HW/Doc/BOM_PMSM_Ctrl_compact_pcb_smd_v4_2layers_30062021.xlsx
+++ b/OnePCB/HW/Doc/BOM_PMSM_Ctrl_compact_pcb_smd_v4_2layers_30062021.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK-AT\WORK 2021\A\eBike\Git\EBike_HW\OnePCB\HW\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Git\EBike_HW\OnePCB\HW\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B671F46B-BF0A-4DEB-9A9C-2FD39DB26528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM!$A$11:$H$54</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="143">
   <si>
     <t>Bill Of Materials for PMSM_Ctrl_compact_pcb_smd_v4_2layers_30062021</t>
   </si>
@@ -461,16 +460,22 @@
   </si>
   <si>
     <t>de analizat</t>
+  </si>
+  <si>
+    <t>AUIRLS4030-7P</t>
+  </si>
+  <si>
+    <t>d2pak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00\ &quot;RON&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.00\ &quot;RON&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +537,22 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -612,10 +633,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -639,6 +661,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -647,68 +723,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -986,11 +1022,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,133 +1046,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="31" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="31" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="1"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="31" t="s">
+      <c r="J4" s="27"/>
+      <c r="K4" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="1"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="31" t="s">
+      <c r="J5" s="28"/>
+      <c r="K5" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="1"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="31" t="s">
+      <c r="J6" s="29"/>
+      <c r="K6" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34">
         <v>162</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1169,20 +1205,20 @@
       <c r="H11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="7">
@@ -1204,28 +1240,28 @@
         <v>3.278</v>
       </c>
       <c r="H12" s="7">
-        <f>G12*MAX(C12,B12)</f>
+        <f t="shared" ref="H12:H23" si="0">G12*MAX(C12,B12)</f>
         <v>29.501999999999999</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="25">
         <v>162</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="30">
         <f>SUM(H12:H68)</f>
         <v>570.60749999999996</v>
       </c>
-      <c r="M12" s="30" t="s">
+      <c r="M12" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="N12" s="30" t="s">
+      <c r="N12" s="25" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="7">
@@ -1247,12 +1283,12 @@
         <v>0.20699999999999999</v>
       </c>
       <c r="H13" s="7">
-        <f>G13*MAX(C13,B13)</f>
+        <f t="shared" si="0"/>
         <v>20.7</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="7">
@@ -1274,12 +1310,12 @@
         <v>0.2</v>
       </c>
       <c r="H14" s="7">
-        <f>G14*MAX(C14,B14)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="7">
@@ -1301,12 +1337,12 @@
         <v>2.7719999999999998</v>
       </c>
       <c r="H15" s="7">
-        <f>G15*MAX(C15,B15)</f>
+        <f t="shared" si="0"/>
         <v>16.631999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="7">
@@ -1328,12 +1364,12 @@
         <v>2.77</v>
       </c>
       <c r="H16" s="7">
-        <f>G16*MAX(C16,B16)</f>
+        <f t="shared" si="0"/>
         <v>16.62</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="7">
@@ -1355,12 +1391,12 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="H17" s="7">
-        <f>G17*MAX(C17,B17)</f>
+        <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="7">
@@ -1382,12 +1418,12 @@
         <v>0.123</v>
       </c>
       <c r="H18" s="7">
-        <f>G18*MAX(C18,B18)</f>
+        <f t="shared" si="0"/>
         <v>12.3</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="7">
@@ -1402,19 +1438,19 @@
       <c r="E19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="13" t="s">
         <v>124</v>
       </c>
       <c r="G19" s="7">
         <v>1.117</v>
       </c>
       <c r="H19" s="7">
-        <f>G19*MAX(C19,B19)</f>
+        <f t="shared" si="0"/>
         <v>11.17</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="7">
@@ -1436,12 +1472,12 @@
         <v>0.78300000000000003</v>
       </c>
       <c r="H20" s="7">
-        <f>G20*MAX(C20,B20)</f>
+        <f t="shared" si="0"/>
         <v>7.83</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B21" s="7">
@@ -1463,12 +1499,12 @@
         <v>1.244</v>
       </c>
       <c r="H21" s="7">
-        <f>G21*MAX(C21,B21)</f>
+        <f t="shared" si="0"/>
         <v>6.22</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="7">
@@ -1490,12 +1526,12 @@
         <v>0.23599999999999999</v>
       </c>
       <c r="H22" s="7">
-        <f>G22*MAX(C22,B22)</f>
+        <f t="shared" si="0"/>
         <v>5.8999999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B23" s="7">
@@ -1510,41 +1546,41 @@
       <c r="E23" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="13" t="s">
         <v>128</v>
       </c>
       <c r="G23" s="7">
         <v>0.20799999999999999</v>
       </c>
       <c r="H23" s="7">
-        <f>G23*MAX(C23,B23)</f>
+        <f t="shared" si="0"/>
         <v>4.16</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="11">
         <v>1</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="11">
         <v>100</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B25" s="7">
@@ -1571,27 +1607,27 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="11">
         <v>1</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="10" t="s">
         <v>100</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="7">
@@ -1618,7 +1654,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="7">
@@ -1645,7 +1681,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="7">
@@ -1672,7 +1708,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="7">
@@ -1699,29 +1735,29 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="11">
         <v>1</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="11">
         <v>5</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B32" s="7">
@@ -1736,7 +1772,7 @@
       <c r="E32" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="14" t="s">
         <v>130</v>
       </c>
       <c r="G32" s="7">
@@ -1748,87 +1784,87 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="11">
         <v>4</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="11">
         <v>2</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16" t="s">
+      <c r="C34" s="11"/>
+      <c r="D34" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="10" t="s">
         <v>94</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="11">
         <v>5</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="11">
         <v>3</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="10" t="s">
         <v>106</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="7">
@@ -1850,12 +1886,12 @@
         <v>0.1197</v>
       </c>
       <c r="H37" s="7">
-        <f>G37*MAX(C37,B37)</f>
+        <f t="shared" ref="H37:H44" si="1">G37*MAX(C37,B37)</f>
         <v>11.97</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="7">
@@ -1877,12 +1913,12 @@
         <v>0.1197</v>
       </c>
       <c r="H38" s="7">
-        <f>G38*MAX(C38,B38)</f>
+        <f t="shared" si="1"/>
         <v>11.97</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="7">
@@ -1904,12 +1940,12 @@
         <v>0.1132</v>
       </c>
       <c r="H39" s="7">
-        <f>G39*MAX(C39,B39)</f>
+        <f t="shared" si="1"/>
         <v>11.32</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="7">
@@ -1931,12 +1967,12 @@
         <v>0.1056</v>
       </c>
       <c r="H40" s="7">
-        <f>G40*MAX(C40,B40)</f>
+        <f t="shared" si="1"/>
         <v>10.56</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="7">
@@ -1958,12 +1994,12 @@
         <v>0.1056</v>
       </c>
       <c r="H41" s="7">
-        <f>G41*MAX(C41,B41)</f>
+        <f t="shared" si="1"/>
         <v>10.56</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B42" s="7">
@@ -1985,12 +2021,12 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="H42" s="7">
-        <f>G42*MAX(C42,B42)</f>
+        <f t="shared" si="1"/>
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B43" s="7">
@@ -2012,12 +2048,12 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="H43" s="7">
-        <f>G43*MAX(C43,B43)</f>
+        <f t="shared" si="1"/>
         <v>7.9</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B44" s="7">
@@ -2039,98 +2075,98 @@
         <v>7.5800000000000006E-2</v>
       </c>
       <c r="H44" s="7">
-        <f>G44*MAX(C44,B44)</f>
+        <f t="shared" si="1"/>
         <v>7.580000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="11">
         <v>2</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="11">
         <v>100</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="11">
         <v>0.192</v>
       </c>
-      <c r="H45" s="15"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="11">
         <v>1</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="11">
         <v>100</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="11">
         <v>0.1</v>
       </c>
-      <c r="H46" s="15"/>
+      <c r="H46" s="11"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B47" s="37">
         <v>2</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="37">
         <v>6</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="21" t="s">
+      <c r="D47" s="38"/>
+      <c r="E47" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G47" s="37">
         <v>8.51</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="40">
         <f>G47*MAX(C47,B47)</f>
         <v>51.06</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="16">
         <v>1</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="16">
         <v>3</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G48" s="5" t="s">
@@ -2142,124 +2178,136 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="11">
         <v>2</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="16" t="s">
+      <c r="C49" s="11"/>
+      <c r="D49" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="10" t="s">
         <v>67</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="11">
         <v>6</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16" t="s">
+      <c r="C50" s="11"/>
+      <c r="D50" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="10" t="s">
         <v>69</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="11">
         <v>2</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="16" t="s">
+      <c r="C51" s="11"/>
+      <c r="D51" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F51" s="10" t="s">
         <v>67</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="25">
+      <c r="B52" s="20">
         <v>3</v>
       </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="26" t="s">
+      <c r="C52" s="20"/>
+      <c r="D52" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="E52" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="24" t="s">
+      <c r="F52" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G52" s="25">
+      <c r="G52" s="20">
         <v>12</v>
       </c>
-      <c r="H52" s="25"/>
+      <c r="H52" s="20"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="21">
+      <c r="B53" s="17">
         <v>2</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="17">
         <v>6</v>
       </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22" t="s">
+      <c r="D53" s="18"/>
+      <c r="E53" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="F53" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="G53" s="21">
+      <c r="G53" s="17">
         <v>27.91</v>
       </c>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
+      <c r="A54" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="7">
+        <v>6</v>
+      </c>
+      <c r="C54" s="7">
+        <v>18</v>
+      </c>
       <c r="D54" s="6"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="7"/>
+      <c r="E54" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G54" s="7">
+        <v>19.559999999999999</v>
+      </c>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="19"/>
+      <c r="D55" s="15"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -2269,19 +2317,19 @@
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="19"/>
+      <c r="D56" s="15"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:H54" xr:uid="{120698E7-74FC-4D81-B76C-538E53EAE751}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:H54">
+  <autoFilter ref="A11:H54">
+    <sortState ref="A12:H54">
       <sortCondition ref="A11:A54"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:H43">
+  <sortState ref="A12:H43">
     <sortCondition ref="A11"/>
   </sortState>
   <mergeCells count="19">
@@ -2306,7 +2354,10 @@
     <mergeCell ref="K5:N5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E54" r:id="rId1" tooltip="AUIRLS4030-7P; Tranzistor: N-MOSFET; unipolar; 100V; 130A; Idm: 750A; 370W; D2PAK-7" display="https://www.tme.eu/ro/details/auirls4030-7p/tranzistori-canal-n-smd/infineon-technologies/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/OnePCB/HW/Doc/BOM_PMSM_Ctrl_compact_pcb_smd_v4_2layers_30062021.xlsx
+++ b/OnePCB/HW/Doc/BOM_PMSM_Ctrl_compact_pcb_smd_v4_2layers_30062021.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Git\EBike_HW\OnePCB\HW\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK-AT\WORK 2021\A\eBike\Git\EBike_HW\OnePCB\HW\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3F2C2F-772F-4167-85F6-98342D513B56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM!$A$11:$H$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM!$A$11:$H$51</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="142">
   <si>
     <t>Bill Of Materials for PMSM_Ctrl_compact_pcb_smd_v4_2layers_30062021</t>
   </si>
@@ -244,30 +245,18 @@
     <t>Q2,Q6-Q10</t>
   </si>
   <si>
-    <t>DPAK-7</t>
-  </si>
-  <si>
     <t>Q3,Q12</t>
   </si>
   <si>
     <t>BCR133</t>
   </si>
   <si>
-    <t>Q5,Q13-Q14</t>
-  </si>
-  <si>
-    <t>IRF4905S</t>
-  </si>
-  <si>
     <t>Diodes</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>BZX284C12</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
@@ -367,27 +356,12 @@
     <t>tht</t>
   </si>
   <si>
-    <t>1210</t>
-  </si>
-  <si>
-    <t>1211</t>
-  </si>
-  <si>
-    <t>1212</t>
-  </si>
-  <si>
-    <t>1213</t>
-  </si>
-  <si>
     <t>MSOP - 8</t>
   </si>
   <si>
     <t>IR2101 / 2</t>
   </si>
   <si>
-    <t>STH</t>
-  </si>
-  <si>
     <t>CAP4x5</t>
   </si>
   <si>
@@ -404,9 +378,6 @@
   </si>
   <si>
     <t>C5,C10,C14,C40-C44,C48,C104,C401,C501,C601,CA1-CA3,CA7</t>
-  </si>
-  <si>
-    <t>3 pcb</t>
   </si>
   <si>
     <t>Ø12.5x13.5mm SMD 7.39
@@ -432,21 +403,12 @@
     <t>0805</t>
   </si>
   <si>
-    <t>IRFR6215TRPBF</t>
-  </si>
-  <si>
     <t>4.39</t>
   </si>
   <si>
-    <t>IXTA120P065T IXYS</t>
-  </si>
-  <si>
     <t>TO263</t>
   </si>
   <si>
-    <t xml:space="preserve">IPB80P04P4L04 </t>
-  </si>
-  <si>
     <t>Pret pt 3 placi</t>
   </si>
   <si>
@@ -462,20 +424,57 @@
     <t>de analizat</t>
   </si>
   <si>
-    <t>AUIRLS4030-7P</t>
-  </si>
-  <si>
-    <t>d2pak</t>
+    <t>BZX284C12 - 15V</t>
+  </si>
+  <si>
+    <t>IXTA120P065T  -65V -120A</t>
+  </si>
+  <si>
+    <t>STD10P6F6 -60V -7.2A</t>
+  </si>
+  <si>
+    <t>IRFS7730TRLPBF 75V 174A</t>
+  </si>
+  <si>
+    <t>D2PAK</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Layers PCB </t>
+  </si>
+  <si>
+    <t>Cost final Inverter</t>
+  </si>
+  <si>
+    <t>Necesar componente pt un Inverter</t>
+  </si>
+  <si>
+    <t>Cost save (componente existente)</t>
+  </si>
+  <si>
+    <t>SM24 suppressor diode</t>
+  </si>
+  <si>
+    <t>40V 200A</t>
+  </si>
+  <si>
+    <t>42V</t>
+  </si>
+  <si>
+    <t>36V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;RON&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,13 +506,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -522,13 +514,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -550,9 +535,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -633,9 +625,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -661,61 +652,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -723,28 +695,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1022,11 +1018,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,151 +1032,155 @@
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="35" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="1"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="J4" s="29"/>
+      <c r="K4" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="1"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="J5" s="30"/>
+      <c r="K5" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="1"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="J6" s="31"/>
+      <c r="K6" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="33"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25">
         <v>162</v>
       </c>
-      <c r="F9" s="33"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="41">
+        <f>K12</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>13</v>
@@ -1200,24 +1200,24 @@
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-    </row>
-    <row r="12" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
@@ -1225,6 +1225,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <f>B12*C10</f>
         <v>9</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -1234,7 +1235,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G12" s="7">
         <v>3.278</v>
@@ -1243,51 +1244,67 @@
         <f t="shared" ref="H12:H23" si="0">G12*MAX(C12,B12)</f>
         <v>29.501999999999999</v>
       </c>
-      <c r="J12" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="K12" s="25">
-        <v>162</v>
-      </c>
-      <c r="L12" s="30">
-        <f>SUM(H12:H68)</f>
-        <v>570.60749999999996</v>
-      </c>
-      <c r="M12" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="J12" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="35">
+        <v>3</v>
+      </c>
+      <c r="L12" s="17">
+        <f>SUM(H12:H65)</f>
+        <v>786.81809999999996</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="P12">
+        <f>G12*B12</f>
+        <v>9.8339999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="11">
         <v>8</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="11">
         <v>100</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="F13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="11">
         <v>0.20699999999999999</v>
       </c>
-      <c r="H13" s="7">
-        <f t="shared" si="0"/>
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="H13" s="7"/>
+      <c r="J13" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="37">
+        <v>5</v>
+      </c>
+      <c r="L13" s="38">
+        <v>0</v>
+      </c>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="P13">
+        <f t="shared" ref="P13:P53" si="1">G13*B13</f>
+        <v>1.6559999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
@@ -1304,7 +1321,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7">
         <v>0.2</v>
@@ -1313,8 +1330,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J14" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38">
+        <f>L12/K12</f>
+        <v>262.27269999999999</v>
+      </c>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
@@ -1322,6 +1353,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="7">
+        <f>B15*C10</f>
         <v>6</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1331,7 +1363,7 @@
         <v>28</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G15" s="7">
         <v>2.7719999999999998</v>
@@ -1340,8 +1372,17 @@
         <f t="shared" si="0"/>
         <v>16.631999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>5.5439999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
@@ -1349,6 +1390,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="7">
+        <f>B16*C10</f>
         <v>6</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -1358,7 +1400,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7">
         <v>2.77</v>
@@ -1367,8 +1409,22 @@
         <f t="shared" si="0"/>
         <v>16.62</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="J16" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38">
+        <f>P53</f>
+        <v>331.80159999999995</v>
+      </c>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
@@ -1385,7 +1441,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7">
         <v>0.13500000000000001</v>
@@ -1394,8 +1450,17 @@
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="J17" s="39"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
@@ -1406,13 +1471,13 @@
         <v>100</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G18" s="7">
         <v>0.123</v>
@@ -1421,8 +1486,22 @@
         <f t="shared" si="0"/>
         <v>12.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="J18" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="K18" s="37"/>
+      <c r="L18" s="38">
+        <f>L16-L14</f>
+        <v>69.528899999999965</v>
+      </c>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>2.0910000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1517,8 @@
       <c r="E19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>124</v>
+      <c r="F19" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="G19" s="7">
         <v>1.117</v>
@@ -1448,8 +1527,12 @@
         <f t="shared" si="0"/>
         <v>11.17</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>1.117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>17</v>
       </c>
@@ -1460,13 +1543,13 @@
         <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7">
         <v>0.78300000000000003</v>
@@ -1475,10 +1558,14 @@
         <f t="shared" si="0"/>
         <v>7.83</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>2.3490000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B21" s="7">
         <v>1</v>
@@ -1487,13 +1574,13 @@
         <v>5</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G21" s="7">
         <v>1.244</v>
@@ -1502,10 +1589,14 @@
         <f t="shared" si="0"/>
         <v>6.22</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>1.244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B22" s="7">
         <v>7</v>
@@ -1514,13 +1605,13 @@
         <v>25</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G22" s="7">
         <v>0.23599999999999999</v>
@@ -1529,37 +1620,52 @@
         <f t="shared" si="0"/>
         <v>5.8999999999999995</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="7">
+      <c r="L22">
+        <v>368</v>
+      </c>
+      <c r="M22" s="34">
+        <f>L12-L22</f>
+        <v>418.81809999999996</v>
+      </c>
+      <c r="N22">
+        <v>500</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>1.6519999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="11">
         <v>1</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="11">
         <v>20</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="13" t="s">
+      <c r="D23" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="7">
+      <c r="F23" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="11">
         <v>0.20799999999999999</v>
       </c>
-      <c r="H23" s="7">
-        <f t="shared" si="0"/>
-        <v>4.16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="7"/>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B24" s="11">
         <v>1</v>
@@ -1568,65 +1674,88 @@
         <v>100</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0.5</v>
+      </c>
       <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>300</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B25" s="7">
         <v>1</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <f>B25*C10</f>
+        <v>3</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G25" s="7">
         <v>5.6950000000000003</v>
       </c>
       <c r="H25" s="7">
         <f>G25*MAX(C25,B25)</f>
-        <v>28.475000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17.085000000000001</v>
+      </c>
+      <c r="M25">
+        <v>200</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>5.6950000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B26" s="11">
         <v>1</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="G26" s="7">
+        <v>20</v>
+      </c>
       <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>54</v>
       </c>
@@ -1634,6 +1763,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <f>B27*C10</f>
         <v>9</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -1643,7 +1773,7 @@
         <v>56</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G27" s="7">
         <v>18.239999999999998</v>
@@ -1652,8 +1782,12 @@
         <f>G27*MAX(C27,B27)</f>
         <v>164.16</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>54.72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>54</v>
       </c>
@@ -1661,13 +1795,14 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <f>B28*C10</f>
+        <v>9</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>63</v>
@@ -1677,10 +1812,14 @@
       </c>
       <c r="H28" s="7">
         <f>G28*MAX(C28,B28)</f>
-        <v>37.68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>56.52</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>18.84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>54</v>
       </c>
@@ -1688,13 +1827,14 @@
         <v>1</v>
       </c>
       <c r="C29" s="7">
-        <v>5</v>
+        <f>B29*C10</f>
+        <v>3</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>58</v>
@@ -1704,10 +1844,14 @@
       </c>
       <c r="H29" s="7">
         <f>G29*MAX(C29,B29)</f>
-        <v>9.7335000000000012</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.8401000000000005</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>1.9467000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>54</v>
       </c>
@@ -1715,13 +1859,14 @@
         <v>1</v>
       </c>
       <c r="C30" s="7">
-        <v>5</v>
+        <f>B30*C10</f>
+        <v>3</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>58</v>
@@ -1731,10 +1876,14 @@
       </c>
       <c r="H30" s="7">
         <f>G30*MAX(C30,B30)</f>
-        <v>8.1649999999999991</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.899</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>1.633</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>54</v>
       </c>
@@ -1748,17 +1897,23 @@
         <v>60</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="11"/>
+      <c r="G31" s="11">
+        <v>3.7</v>
+      </c>
       <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B32" s="7">
         <v>1</v>
@@ -1767,13 +1922,13 @@
         <v>10</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>130</v>
+        <v>119</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="G32" s="7">
         <v>1.1970000000000001</v>
@@ -1782,142 +1937,172 @@
         <f>G32*MAX(C32,B32)</f>
         <v>11.97</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>1.1970000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B33" s="11">
         <v>4</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="G33" s="7">
+        <v>2</v>
+      </c>
       <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B34" s="11">
         <v>2</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="G34" s="7">
+        <v>2</v>
+      </c>
       <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B35" s="11">
         <v>5</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="G35" s="7">
+        <v>2</v>
+      </c>
       <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B36" s="11">
         <v>3</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="G36" s="7">
+        <v>10</v>
+      </c>
       <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="P36">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="11">
         <v>5</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="11">
         <v>100</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>79</v>
+      <c r="F37" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="G37" s="7">
         <v>0.1197</v>
       </c>
-      <c r="H37" s="7">
-        <f t="shared" ref="H37:H44" si="1">G37*MAX(C37,B37)</f>
-        <v>11.97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="H37" s="7"/>
+      <c r="P37">
+        <f t="shared" si="1"/>
+        <v>0.59850000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="11">
         <v>6</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="11">
         <v>100</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>113</v>
+      <c r="F38" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="G38" s="7">
         <v>0.1197</v>
       </c>
-      <c r="H38" s="7">
-        <f t="shared" si="1"/>
-        <v>11.97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H38" s="7"/>
+      <c r="P38">
+        <f t="shared" si="1"/>
+        <v>0.71819999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>33</v>
       </c>
@@ -1934,17 +2119,21 @@
         <v>41</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G39" s="7">
         <v>0.1132</v>
       </c>
       <c r="H39" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H39:H42" si="2">G39*MAX(C39,B39)</f>
         <v>11.32</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <f t="shared" si="1"/>
+        <v>0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>33</v>
       </c>
@@ -1961,17 +2150,21 @@
         <v>39</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G40" s="7">
         <v>0.1056</v>
       </c>
       <c r="H40" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.56</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <f t="shared" si="1"/>
+        <v>1.2671999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>33</v>
       </c>
@@ -1988,17 +2181,21 @@
         <v>45</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="G41" s="7">
         <v>0.1056</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.56</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <f t="shared" si="1"/>
+        <v>0.73919999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>33</v>
       </c>
@@ -2015,71 +2212,77 @@
         <v>35</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G42" s="7">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="H42" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="P42">
+        <f t="shared" si="1"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="11">
         <v>3</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="11">
         <v>100</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>79</v>
+      <c r="F43" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="G43" s="7">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="H43" s="7">
-        <f t="shared" si="1"/>
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="H43" s="7"/>
+      <c r="P43">
+        <f t="shared" si="1"/>
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="11">
         <v>6</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="11">
         <v>100</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>79</v>
+      <c r="F44" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="G44" s="7">
         <v>7.5800000000000006E-2</v>
       </c>
-      <c r="H44" s="7">
-        <f t="shared" si="1"/>
-        <v>7.580000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="7"/>
+      <c r="P44">
+        <f t="shared" si="1"/>
+        <v>0.45480000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>33</v>
       </c>
@@ -2096,14 +2299,18 @@
         <v>47</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="G45" s="11">
         <v>0.192</v>
       </c>
       <c r="H45" s="11"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <f t="shared" si="1"/>
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>33</v>
       </c>
@@ -2120,64 +2327,78 @@
         <v>49</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="G46" s="11">
         <v>0.1</v>
       </c>
       <c r="H46" s="11"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
+      <c r="P46">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="37">
+      <c r="B47" s="19">
         <v>2</v>
       </c>
-      <c r="C47" s="37">
+      <c r="C47" s="19">
+        <f>B47*C10</f>
         <v>6</v>
       </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="F47" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="G47" s="37">
-        <v>8.51</v>
-      </c>
-      <c r="H47" s="40">
+      <c r="D47" s="20"/>
+      <c r="E47" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="G47" s="19">
+        <v>24.4</v>
+      </c>
+      <c r="H47" s="21">
         <f>G47*MAX(C47,B47)</f>
-        <v>51.06</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+        <v>146.39999999999998</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="1"/>
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="19">
         <v>1</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="19">
+        <f>B48*C10</f>
         <v>3</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" s="14" t="s">
+      <c r="D48" s="20"/>
+      <c r="E48" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H48" s="7">
+      <c r="G48" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H48" s="21">
         <f>G48*MAX(C48,B48)</f>
         <v>13.169999999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <f t="shared" si="1"/>
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>64</v>
       </c>
@@ -2194,30 +2415,48 @@
       <c r="F49" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7">
+        <v>1</v>
+      </c>
       <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="P49">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="19">
         <v>6</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12" t="s">
+      <c r="C50" s="19">
+        <f>B50*C10</f>
+        <v>18</v>
+      </c>
+      <c r="D50" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E50" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" s="19">
+        <v>10.27</v>
+      </c>
+      <c r="H50" s="21">
+        <f t="shared" ref="H50" si="3">G50*MAX(C50,B50)</f>
+        <v>184.85999999999999</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="1"/>
+        <v>61.62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>64</v>
       </c>
@@ -2226,122 +2465,82 @@
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G51" s="7"/>
+      <c r="G51" s="7">
+        <v>1</v>
+      </c>
       <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="20">
-        <v>3</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G52" s="20">
+      <c r="P51">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="11">
+        <v>2</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="7">
+        <v>6</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="P52">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H52" s="20"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="17">
-        <v>2</v>
-      </c>
-      <c r="C53" s="17">
-        <v>6</v>
-      </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G53" s="17">
-        <v>27.91</v>
-      </c>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="7">
-        <v>6</v>
-      </c>
-      <c r="C54" s="7">
-        <v>18</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="41" t="s">
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="P53">
+        <f>SUM(P12:P52)</f>
+        <v>331.80159999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
         <v>141</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G54" s="7">
-        <v>19.559999999999999</v>
-      </c>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:H54">
-    <sortState ref="A12:H54">
-      <sortCondition ref="A11:A54"/>
+  <autoFilter ref="A11:H51" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:H51">
+      <sortCondition ref="A11:A51"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A12:H43">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:H43">
     <sortCondition ref="A11"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
@@ -2352,12 +2551,18 @@
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E54" r:id="rId1" tooltip="AUIRLS4030-7P; Tranzistor: N-MOSFET; unipolar; 100V; 130A; Idm: 750A; 370W; D2PAK-7" display="https://www.tme.eu/ro/details/auirls4030-7p/tranzistori-canal-n-smd/infineon-technologies/"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OnePCB/HW/Doc/BOM_PMSM_Ctrl_compact_pcb_smd_v4_2layers_30062021.xlsx
+++ b/OnePCB/HW/Doc/BOM_PMSM_Ctrl_compact_pcb_smd_v4_2layers_30062021.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK-AT\WORK 2021\A\eBike\Git\EBike_HW\OnePCB\HW\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Git\EBike_HW\OnePCB\HW\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3F2C2F-772F-4167-85F6-98342D513B56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM!$A$11:$H$51</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="149">
   <si>
     <t>Bill Of Materials for PMSM_Ctrl_compact_pcb_smd_v4_2layers_30062021</t>
   </si>
@@ -454,9 +454,6 @@
     <t>Cost save (componente existente)</t>
   </si>
   <si>
-    <t>SM24 suppressor diode</t>
-  </si>
-  <si>
     <t>40V 200A</t>
   </si>
   <si>
@@ -464,12 +461,36 @@
   </si>
   <si>
     <t>36V</t>
+  </si>
+  <si>
+    <t>1.5SMCJ40A-DIO</t>
+  </si>
+  <si>
+    <t>do214ab</t>
+  </si>
+  <si>
+    <t>1.5SMCJ20A-DIO</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t>Vref</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buck converter </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;RON&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -628,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -649,9 +670,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,9 +680,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -687,6 +702,47 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -697,47 +753,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,11 +1033,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,137 +1057,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="22" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="22" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="24"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="1"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="22" t="s">
+      <c r="J4" s="22"/>
+      <c r="K4" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="24"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="1"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="22" t="s">
+      <c r="J5" s="23"/>
+      <c r="K5" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="24"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="1"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="22" t="s">
+      <c r="J6" s="24"/>
+      <c r="K6" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25">
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38">
         <v>162</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="41">
+      <c r="C10" s="34">
         <f>K12</f>
         <v>3</v>
       </c>
@@ -1205,20 +1220,20 @@
       <c r="H11" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="7">
@@ -1241,23 +1256,23 @@
         <v>3.278</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" ref="H12:H23" si="0">G12*MAX(C12,B12)</f>
+        <f t="shared" ref="H12:H22" si="0">G12*MAX(C12,B12)</f>
         <v>29.501999999999999</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="28">
         <v>3</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="15">
         <f>SUM(H12:H65)</f>
-        <v>786.81809999999996</v>
-      </c>
-      <c r="M12" s="16" t="s">
+        <v>800.10810000000004</v>
+      </c>
+      <c r="M12" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="14" t="s">
         <v>124</v>
       </c>
       <c r="P12">
@@ -1266,46 +1281,46 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>8</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>100</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>0.20699999999999999</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="30">
         <v>5</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="31">
         <v>0</v>
       </c>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
       <c r="P13">
         <f t="shared" ref="P13:P53" si="1">G13*B13</f>
         <v>1.6559999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="7">
@@ -1330,23 +1345,23 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38">
+      <c r="K14" s="30"/>
+      <c r="L14" s="31">
         <f>L12/K12</f>
-        <v>262.27269999999999</v>
-      </c>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
+        <v>266.70269999999999</v>
+      </c>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
       <c r="P14">
         <f t="shared" si="1"/>
         <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="7">
@@ -1372,18 +1387,18 @@
         <f t="shared" si="0"/>
         <v>16.631999999999998</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
       <c r="P15">
         <f t="shared" si="1"/>
         <v>5.5439999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="7">
@@ -1409,23 +1424,23 @@
         <f t="shared" si="0"/>
         <v>16.62</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="38">
-        <f>P53</f>
-        <v>331.80159999999995</v>
-      </c>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="31">
+        <f>P54</f>
+        <v>324.23159999999996</v>
+      </c>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
       <c r="P16">
         <f t="shared" si="1"/>
         <v>5.54</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="7">
@@ -1450,18 +1465,18 @@
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
       <c r="P17">
         <f t="shared" si="1"/>
         <v>1.08</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="7">
@@ -1486,23 +1501,23 @@
         <f t="shared" si="0"/>
         <v>12.3</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="38">
+      <c r="K18" s="30"/>
+      <c r="L18" s="31">
         <f>L16-L14</f>
-        <v>69.528899999999965</v>
-      </c>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
+        <v>57.528899999999965</v>
+      </c>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
       <c r="P18">
         <f t="shared" si="1"/>
         <v>2.0910000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="7">
@@ -1533,7 +1548,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="7">
@@ -1564,7 +1579,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B21" s="7">
@@ -1595,7 +1610,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B22" s="7">
@@ -1623,9 +1638,9 @@
       <c r="L22">
         <v>368</v>
       </c>
-      <c r="M22" s="34">
+      <c r="M22" s="27">
         <f>L12-L22</f>
-        <v>418.81809999999996</v>
+        <v>432.10810000000004</v>
       </c>
       <c r="N22">
         <v>500</v>
@@ -1636,25 +1651,25 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>1</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>20</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <v>0.20799999999999999</v>
       </c>
       <c r="H23" s="7"/>
@@ -1664,25 +1679,25 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>1</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>100</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <v>0.5</v>
       </c>
       <c r="H24" s="7"/>
@@ -1695,7 +1710,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B25" s="7">
@@ -1730,20 +1745,20 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>1</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>96</v>
       </c>
       <c r="G26" s="7">
@@ -1756,7 +1771,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="7">
@@ -1788,7 +1803,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="7">
@@ -1820,7 +1835,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="7">
@@ -1852,7 +1867,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="7">
@@ -1884,35 +1899,35 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>1</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <v>5</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="10">
         <v>3.7</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="H31" s="10"/>
       <c r="P31">
         <f t="shared" si="1"/>
         <v>3.7</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="7">
@@ -1943,20 +1958,20 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>4</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12" t="s">
+      <c r="C33" s="10"/>
+      <c r="D33" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G33" s="7">
@@ -1969,20 +1984,20 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>2</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>90</v>
       </c>
       <c r="G34" s="7">
@@ -1995,20 +2010,20 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>5</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12" t="s">
+      <c r="C35" s="10"/>
+      <c r="D35" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="9" t="s">
         <v>98</v>
       </c>
       <c r="G35" s="7">
@@ -2021,20 +2036,20 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>3</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12" t="s">
+      <c r="C36" s="10"/>
+      <c r="D36" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="9" t="s">
         <v>102</v>
       </c>
       <c r="G36" s="7">
@@ -2047,22 +2062,22 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>5</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="10">
         <v>100</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="9" t="s">
         <v>75</v>
       </c>
       <c r="G37" s="7">
@@ -2075,22 +2090,22 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>6</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="10">
         <v>100</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="9" t="s">
         <v>75</v>
       </c>
       <c r="G38" s="7">
@@ -2103,7 +2118,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="7">
@@ -2134,7 +2149,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="7">
@@ -2165,7 +2180,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="7">
@@ -2196,7 +2211,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B42" s="7">
@@ -2227,22 +2242,22 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>3</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="10">
         <v>100</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="9" t="s">
         <v>75</v>
       </c>
       <c r="G43" s="7">
@@ -2255,22 +2270,22 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>6</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="10">
         <v>100</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="9" t="s">
         <v>75</v>
       </c>
       <c r="G44" s="7">
@@ -2283,83 +2298,83 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>2</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="10">
         <v>100</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="10">
         <v>0.192</v>
       </c>
-      <c r="H45" s="11"/>
+      <c r="H45" s="10"/>
       <c r="P45">
         <f t="shared" si="1"/>
         <v>0.38400000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>1</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="10">
         <v>100</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="10">
         <v>0.1</v>
       </c>
-      <c r="H46" s="11"/>
+      <c r="H46" s="10"/>
       <c r="P46">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="17">
         <v>2</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="17">
         <f>B47*C10</f>
         <v>6</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="19" t="s">
+      <c r="D47" s="18"/>
+      <c r="E47" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="F47" s="27" t="s">
+      <c r="F47" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="17">
         <v>24.4</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="19">
         <f>G47*MAX(C47,B47)</f>
         <v>146.39999999999998</v>
       </c>
@@ -2369,27 +2384,27 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="17">
         <v>1</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="17">
         <f>B48*C10</f>
         <v>3</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="19" t="s">
+      <c r="D48" s="18"/>
+      <c r="E48" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="F48" s="27" t="s">
+      <c r="F48" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G48" s="19" t="s">
+      <c r="G48" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="H48" s="21">
+      <c r="H48" s="19">
         <f>G48*MAX(C48,B48)</f>
         <v>13.169999999999998</v>
       </c>
@@ -2399,20 +2414,20 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="10">
         <v>2</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12" t="s">
+      <c r="C49" s="10"/>
+      <c r="D49" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="9" t="s">
         <v>67</v>
       </c>
       <c r="G49" s="7">
@@ -2425,30 +2440,30 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="17">
         <v>6</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="17">
         <f>B50*C10</f>
         <v>18</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="F50" s="27" t="s">
+      <c r="F50" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="17">
         <v>10.27</v>
       </c>
-      <c r="H50" s="21">
-        <f t="shared" ref="H50" si="3">G50*MAX(C50,B50)</f>
+      <c r="H50" s="19">
+        <f t="shared" ref="H50:H53" si="3">G50*MAX(C50,B50)</f>
         <v>184.85999999999999</v>
       </c>
       <c r="P50">
@@ -2457,87 +2472,117 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="10">
         <v>2</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12" t="s">
+      <c r="C51" s="10"/>
+      <c r="D51" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="9" t="s">
         <v>67</v>
       </c>
       <c r="G51" s="7">
         <v>1</v>
       </c>
-      <c r="H51" s="7"/>
+      <c r="H51" s="19"/>
       <c r="P51">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="10">
         <v>2</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F52" s="10"/>
+      <c r="C52" s="10">
+        <f>B52*C10</f>
+        <v>6</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="G52" s="7">
-        <v>6</v>
-      </c>
-      <c r="H52" s="7"/>
+        <v>1.47</v>
+      </c>
+      <c r="H52" s="19">
+        <f t="shared" si="3"/>
+        <v>8.82</v>
+      </c>
       <c r="P52">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
+      <c r="A53" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="10">
+        <v>1</v>
+      </c>
+      <c r="C53" s="10">
+        <f>B53*C10</f>
+        <v>3</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G53" s="7">
+        <v>1.49</v>
+      </c>
+      <c r="H53" s="19">
+        <f t="shared" si="3"/>
+        <v>4.47</v>
+      </c>
       <c r="P53">
-        <f>SUM(P12:P52)</f>
-        <v>331.80159999999995</v>
+        <f t="shared" si="1"/>
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P54">
+        <f>SUM(P12:P53)</f>
+        <v>324.23159999999996</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A11:H51" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:H51">
+  <autoFilter ref="A11:H51">
+    <sortState ref="A12:H51">
       <sortCondition ref="A11:A51"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:H43">
+  <sortState ref="A12:H43">
     <sortCondition ref="A11"/>
   </sortState>
   <mergeCells count="19">
@@ -2565,4 +2610,75 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D5:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14">
+        <f>E9*(E7/E8-1)</f>
+        <v>24629.268292682926</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16">
+        <f>22000+3300</f>
+        <v>25300</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19">
+        <f>E8*(1+E16/E9)</f>
+        <v>15.375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>